--- a/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/50/FD_Curve.xlsx
+++ b/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/50/FD_Curve.xlsx
@@ -499,10 +499,10 @@
         <v>0.124006</v>
       </c>
       <c r="B6" t="n">
-        <v>4.39619</v>
+        <v>4.399850000000001</v>
       </c>
       <c r="C6" t="n">
-        <v>4396.19</v>
+        <v>4399.85</v>
       </c>
     </row>
     <row r="7">
@@ -510,10 +510,10 @@
         <v>0.155041</v>
       </c>
       <c r="B7" t="n">
-        <v>5.14504</v>
+        <v>5.63424</v>
       </c>
       <c r="C7" t="n">
-        <v>5145.04</v>
+        <v>5634.24</v>
       </c>
     </row>
     <row r="8">
@@ -521,10 +521,10 @@
         <v>0.186012</v>
       </c>
       <c r="B8" t="n">
-        <v>5.714090000000001</v>
+        <v>6.66527</v>
       </c>
       <c r="C8" t="n">
-        <v>5714.09</v>
+        <v>6665.27</v>
       </c>
     </row>
     <row r="9">
@@ -532,1033 +532,1033 @@
         <v>0.216989</v>
       </c>
       <c r="B9" t="n">
-        <v>6.16041</v>
+        <v>7.601770000000001</v>
       </c>
       <c r="C9" t="n">
-        <v>6160.41</v>
+        <v>7601.77</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.247927</v>
+        <v>0.247936</v>
       </c>
       <c r="B10" t="n">
-        <v>6.580430000000001</v>
+        <v>8.43064</v>
       </c>
       <c r="C10" t="n">
-        <v>6580.43</v>
+        <v>8430.639999999999</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.278852</v>
+        <v>0.278861</v>
       </c>
       <c r="B11" t="n">
-        <v>6.96254</v>
+        <v>9.20623</v>
       </c>
       <c r="C11" t="n">
-        <v>6962.54</v>
+        <v>9206.23</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.309777</v>
+        <v>0.309786</v>
       </c>
       <c r="B12" t="n">
-        <v>7.23923</v>
+        <v>9.902229999999999</v>
       </c>
       <c r="C12" t="n">
-        <v>7239.23</v>
+        <v>9902.23</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.340703</v>
+        <v>0.340711</v>
       </c>
       <c r="B13" t="n">
-        <v>7.51017</v>
+        <v>10.337</v>
       </c>
       <c r="C13" t="n">
-        <v>7510.17</v>
+        <v>10337</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.371628</v>
+        <v>0.371636</v>
       </c>
       <c r="B14" t="n">
-        <v>7.7437</v>
+        <v>10.4848</v>
       </c>
       <c r="C14" t="n">
-        <v>7743.7</v>
+        <v>10484.8</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.402553</v>
+        <v>0.402561</v>
       </c>
       <c r="B15" t="n">
-        <v>7.92942</v>
+        <v>10.4958</v>
       </c>
       <c r="C15" t="n">
-        <v>7929.42</v>
+        <v>10495.8</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.433478</v>
+        <v>0.433486</v>
       </c>
       <c r="B16" t="n">
-        <v>8.07006</v>
+        <v>10.4912</v>
       </c>
       <c r="C16" t="n">
-        <v>8070.06</v>
+        <v>10491.2</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.464403</v>
+        <v>0.464411</v>
       </c>
       <c r="B17" t="n">
-        <v>8.185829999999999</v>
+        <v>10.4837</v>
       </c>
       <c r="C17" t="n">
-        <v>8185.83</v>
+        <v>10483.7</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.495328</v>
+        <v>0.495336</v>
       </c>
       <c r="B18" t="n">
-        <v>8.26009</v>
+        <v>10.4758</v>
       </c>
       <c r="C18" t="n">
-        <v>8260.09</v>
+        <v>10475.8</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.526253</v>
+        <v>0.526261</v>
       </c>
       <c r="B19" t="n">
-        <v>8.28406</v>
+        <v>10.4657</v>
       </c>
       <c r="C19" t="n">
-        <v>8284.059999999999</v>
+        <v>10465.7</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.557178</v>
+        <v>0.557186</v>
       </c>
       <c r="B20" t="n">
-        <v>8.284700000000001</v>
+        <v>10.4548</v>
       </c>
       <c r="C20" t="n">
-        <v>8284.700000000001</v>
+        <v>10454.8</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.588103</v>
+        <v>0.5881110000000001</v>
       </c>
       <c r="B21" t="n">
-        <v>8.2683</v>
+        <v>10.4421</v>
       </c>
       <c r="C21" t="n">
-        <v>8268.299999999999</v>
+        <v>10442.1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.6191449999999999</v>
+        <v>0.619153</v>
       </c>
       <c r="B22" t="n">
-        <v>8.24385</v>
+        <v>10.4288</v>
       </c>
       <c r="C22" t="n">
-        <v>8243.85</v>
+        <v>10428.8</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.650317</v>
+        <v>0.650326</v>
       </c>
       <c r="B23" t="n">
-        <v>8.2158</v>
+        <v>10.4137</v>
       </c>
       <c r="C23" t="n">
-        <v>8215.799999999999</v>
+        <v>10413.7</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.68149</v>
+        <v>0.681498</v>
       </c>
       <c r="B24" t="n">
-        <v>8.18535</v>
+        <v>10.3978</v>
       </c>
       <c r="C24" t="n">
-        <v>8185.35</v>
+        <v>10397.8</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.7126670000000001</v>
+        <v>0.7126749999999999</v>
       </c>
       <c r="B25" t="n">
-        <v>8.153040000000001</v>
+        <v>10.3805</v>
       </c>
       <c r="C25" t="n">
-        <v>8153.04</v>
+        <v>10380.5</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.743839</v>
+        <v>0.743848</v>
       </c>
       <c r="B26" t="n">
-        <v>8.119109999999999</v>
+        <v>10.3624</v>
       </c>
       <c r="C26" t="n">
-        <v>8119.11</v>
+        <v>10362.4</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.775017</v>
+        <v>0.775025</v>
       </c>
       <c r="B27" t="n">
-        <v>8.0837</v>
+        <v>10.3434</v>
       </c>
       <c r="C27" t="n">
-        <v>8083.7</v>
+        <v>10343.4</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.806189</v>
+        <v>0.806198</v>
       </c>
       <c r="B28" t="n">
-        <v>8.04702</v>
+        <v>10.3238</v>
       </c>
       <c r="C28" t="n">
-        <v>8047.02</v>
+        <v>10323.8</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.8373620000000001</v>
+        <v>0.8373699999999999</v>
       </c>
       <c r="B29" t="n">
-        <v>8.00849</v>
+        <v>10.3034</v>
       </c>
       <c r="C29" t="n">
-        <v>8008.49</v>
+        <v>10303.4</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.8685389999999999</v>
+        <v>0.868547</v>
       </c>
       <c r="B30" t="n">
-        <v>7.96832</v>
+        <v>10.2817</v>
       </c>
       <c r="C30" t="n">
-        <v>7968.32</v>
+        <v>10281.7</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.899711</v>
+        <v>0.89972</v>
       </c>
       <c r="B31" t="n">
-        <v>7.92553</v>
+        <v>10.259</v>
       </c>
       <c r="C31" t="n">
-        <v>7925.53</v>
+        <v>10259</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.930884</v>
+        <v>0.9308920000000001</v>
       </c>
       <c r="B32" t="n">
-        <v>7.87886</v>
+        <v>10.2353</v>
       </c>
       <c r="C32" t="n">
-        <v>7878.86</v>
+        <v>10235.3</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.9620610000000001</v>
+        <v>0.962069</v>
       </c>
       <c r="B33" t="n">
-        <v>7.82962</v>
+        <v>10.2098</v>
       </c>
       <c r="C33" t="n">
-        <v>7829.62</v>
+        <v>10209.8</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.993233</v>
+        <v>0.993242</v>
       </c>
       <c r="B34" t="n">
-        <v>7.77628</v>
+        <v>10.1835</v>
       </c>
       <c r="C34" t="n">
-        <v>7776.28</v>
+        <v>10183.5</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1.02427</v>
+        <v>1.02455</v>
       </c>
       <c r="B35" t="n">
-        <v>7.71957</v>
+        <v>10.1563</v>
       </c>
       <c r="C35" t="n">
-        <v>7719.57</v>
+        <v>10156.3</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1.05524</v>
+        <v>1.05594</v>
       </c>
       <c r="B36" t="n">
-        <v>7.65882</v>
+        <v>10.1283</v>
       </c>
       <c r="C36" t="n">
-        <v>7658.82</v>
+        <v>10128.3</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1.0862</v>
+        <v>1.08731</v>
       </c>
       <c r="B37" t="n">
-        <v>7.594060000000001</v>
+        <v>10.0992</v>
       </c>
       <c r="C37" t="n">
-        <v>7594.06</v>
+        <v>10099.2</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1.11717</v>
+        <v>1.1187</v>
       </c>
       <c r="B38" t="n">
-        <v>7.52567</v>
+        <v>10.0691</v>
       </c>
       <c r="C38" t="n">
-        <v>7525.67</v>
+        <v>10069.1</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1.14814</v>
+        <v>1.15008</v>
       </c>
       <c r="B39" t="n">
-        <v>7.45342</v>
+        <v>10.038</v>
       </c>
       <c r="C39" t="n">
-        <v>7453.42</v>
+        <v>10038</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1.1791</v>
+        <v>1.18146</v>
       </c>
       <c r="B40" t="n">
-        <v>7.37742</v>
+        <v>10.0057</v>
       </c>
       <c r="C40" t="n">
-        <v>7377.42</v>
+        <v>10005.7</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1.21008</v>
+        <v>1.21284</v>
       </c>
       <c r="B41" t="n">
-        <v>7.297470000000001</v>
+        <v>9.971450000000001</v>
       </c>
       <c r="C41" t="n">
-        <v>7297.47</v>
+        <v>9971.450000000001</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1.24104</v>
+        <v>1.24422</v>
       </c>
       <c r="B42" t="n">
-        <v>7.213640000000001</v>
+        <v>9.93561</v>
       </c>
       <c r="C42" t="n">
-        <v>7213.64</v>
+        <v>9935.610000000001</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1.27176</v>
+        <v>1.2756</v>
       </c>
       <c r="B43" t="n">
-        <v>6.58425</v>
+        <v>9.898809999999999</v>
       </c>
       <c r="C43" t="n">
-        <v>6584.25</v>
+        <v>9898.809999999999</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1.30243</v>
+        <v>1.30698</v>
       </c>
       <c r="B44" t="n">
-        <v>6.693000000000001</v>
+        <v>9.860520000000001</v>
       </c>
       <c r="C44" t="n">
-        <v>6693</v>
+        <v>9860.52</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>1.33377</v>
+        <v>1.33836</v>
       </c>
       <c r="B45" t="n">
-        <v>6.82069</v>
+        <v>9.820600000000001</v>
       </c>
       <c r="C45" t="n">
-        <v>6820.69</v>
+        <v>9820.6</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1.36471</v>
+        <v>1.3697</v>
       </c>
       <c r="B46" t="n">
-        <v>6.926010000000001</v>
+        <v>9.778870000000001</v>
       </c>
       <c r="C46" t="n">
-        <v>6926.01</v>
+        <v>9778.870000000001</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1.39541</v>
+        <v>1.40045</v>
       </c>
       <c r="B47" t="n">
-        <v>6.871020000000001</v>
+        <v>9.736090000000001</v>
       </c>
       <c r="C47" t="n">
-        <v>6871.02</v>
+        <v>9736.09</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1.42714</v>
+        <v>1.43172</v>
       </c>
       <c r="B48" t="n">
-        <v>6.79727</v>
+        <v>9.691079999999999</v>
       </c>
       <c r="C48" t="n">
-        <v>6797.27</v>
+        <v>9691.08</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1.45815</v>
+        <v>1.46251</v>
       </c>
       <c r="B49" t="n">
-        <v>6.68808</v>
+        <v>9.64494</v>
       </c>
       <c r="C49" t="n">
-        <v>6688.08</v>
+        <v>9644.940000000001</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1.48875</v>
+        <v>1.49372</v>
       </c>
       <c r="B50" t="n">
-        <v>6.438470000000001</v>
+        <v>9.596360000000001</v>
       </c>
       <c r="C50" t="n">
-        <v>6438.47</v>
+        <v>9596.360000000001</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1.51937</v>
+        <v>1.52445</v>
       </c>
       <c r="B51" t="n">
-        <v>6.35156</v>
+        <v>9.54649</v>
       </c>
       <c r="C51" t="n">
-        <v>6351.56</v>
+        <v>9546.49</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1.54997</v>
+        <v>1.55571</v>
       </c>
       <c r="B52" t="n">
-        <v>6.18124</v>
+        <v>9.494110000000001</v>
       </c>
       <c r="C52" t="n">
-        <v>6181.24</v>
+        <v>9494.110000000001</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>1.58058</v>
+        <v>1.58653</v>
       </c>
       <c r="B53" t="n">
-        <v>6.073729999999999</v>
+        <v>9.44031</v>
       </c>
       <c r="C53" t="n">
-        <v>6073.73</v>
+        <v>9440.309999999999</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>1.61119</v>
+        <v>1.61769</v>
       </c>
       <c r="B54" t="n">
-        <v>5.99446</v>
+        <v>9.38306</v>
       </c>
       <c r="C54" t="n">
-        <v>5994.46</v>
+        <v>9383.059999999999</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>1.6418</v>
+        <v>1.64859</v>
       </c>
       <c r="B55" t="n">
-        <v>5.87971</v>
+        <v>9.32382</v>
       </c>
       <c r="C55" t="n">
-        <v>5879.71</v>
+        <v>9323.82</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>1.67255</v>
+        <v>1.67968</v>
       </c>
       <c r="B56" t="n">
-        <v>5.83998</v>
+        <v>9.261690000000002</v>
       </c>
       <c r="C56" t="n">
-        <v>5839.98</v>
+        <v>9261.690000000001</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>1.70397</v>
+        <v>1.71066</v>
       </c>
       <c r="B57" t="n">
-        <v>5.70158</v>
+        <v>9.19702</v>
       </c>
       <c r="C57" t="n">
-        <v>5701.58</v>
+        <v>9197.02</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1.73539</v>
+        <v>1.74159</v>
       </c>
       <c r="B58" t="n">
-        <v>5.59372</v>
+        <v>9.13001</v>
       </c>
       <c r="C58" t="n">
-        <v>5593.72</v>
+        <v>9130.01</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>1.76681</v>
+        <v>1.77272</v>
       </c>
       <c r="B59" t="n">
-        <v>5.45603</v>
+        <v>9.059979999999999</v>
       </c>
       <c r="C59" t="n">
-        <v>5456.03</v>
+        <v>9059.98</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>1.79759</v>
+        <v>1.80346</v>
       </c>
       <c r="B60" t="n">
-        <v>5.36694</v>
+        <v>8.98831</v>
       </c>
       <c r="C60" t="n">
-        <v>5366.94</v>
+        <v>8988.309999999999</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>1.82876</v>
+        <v>1.83477</v>
       </c>
       <c r="B61" t="n">
-        <v>5.23878</v>
+        <v>8.912780000000001</v>
       </c>
       <c r="C61" t="n">
-        <v>5238.78</v>
+        <v>8912.780000000001</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>1.85969</v>
+        <v>1.86556</v>
       </c>
       <c r="B62" t="n">
-        <v>5.17815</v>
+        <v>8.835750000000001</v>
       </c>
       <c r="C62" t="n">
-        <v>5178.15</v>
+        <v>8835.75</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>1.89068</v>
+        <v>1.8967</v>
       </c>
       <c r="B63" t="n">
-        <v>5.07647</v>
+        <v>8.7553</v>
       </c>
       <c r="C63" t="n">
-        <v>5076.47</v>
+        <v>8755.299999999999</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>1.92167</v>
+        <v>1.92764</v>
       </c>
       <c r="B64" t="n">
-        <v>4.99072</v>
+        <v>8.67314</v>
       </c>
       <c r="C64" t="n">
-        <v>4990.72</v>
+        <v>8673.139999999999</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>1.95266</v>
+        <v>1.95872</v>
       </c>
       <c r="B65" t="n">
-        <v>4.878850000000001</v>
+        <v>8.588180000000001</v>
       </c>
       <c r="C65" t="n">
-        <v>4878.85</v>
+        <v>8588.18</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>1.98364</v>
+        <v>1.98962</v>
       </c>
       <c r="B66" t="n">
-        <v>4.80959</v>
+        <v>8.501440000000001</v>
       </c>
       <c r="C66" t="n">
-        <v>4809.59</v>
+        <v>8501.440000000001</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>2.0142</v>
+        <v>2.02068</v>
       </c>
       <c r="B67" t="n">
-        <v>4.73266</v>
+        <v>8.412330000000001</v>
       </c>
       <c r="C67" t="n">
-        <v>4732.66</v>
+        <v>8412.33</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>2.04549</v>
+        <v>2.05178</v>
       </c>
       <c r="B68" t="n">
-        <v>4.65193</v>
+        <v>8.3215</v>
       </c>
       <c r="C68" t="n">
-        <v>4651.93</v>
+        <v>8321.5</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>2.07649</v>
+        <v>2.08277</v>
       </c>
       <c r="B69" t="n">
-        <v>4.56601</v>
+        <v>8.22883</v>
       </c>
       <c r="C69" t="n">
-        <v>4566.01</v>
+        <v>8228.83</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>2.10803</v>
+        <v>2.11369</v>
       </c>
       <c r="B70" t="n">
-        <v>4.49304</v>
+        <v>8.134080000000001</v>
       </c>
       <c r="C70" t="n">
-        <v>4493.04</v>
+        <v>8134.08</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>2.13963</v>
+        <v>2.14498</v>
       </c>
       <c r="B71" t="n">
-        <v>4.41591</v>
+        <v>8.037979999999999</v>
       </c>
       <c r="C71" t="n">
-        <v>4415.91</v>
+        <v>8037.98</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>2.16991</v>
+        <v>2.17564</v>
       </c>
       <c r="B72" t="n">
-        <v>4.356050000000001</v>
+        <v>7.94047</v>
       </c>
       <c r="C72" t="n">
-        <v>4356.05</v>
+        <v>7940.47</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>2.20125</v>
+        <v>2.20707</v>
       </c>
       <c r="B73" t="n">
-        <v>4.29656</v>
+        <v>7.841670000000001</v>
       </c>
       <c r="C73" t="n">
-        <v>4296.56</v>
+        <v>7841.67</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>2.23252</v>
+        <v>2.23731</v>
       </c>
       <c r="B74" t="n">
-        <v>4.22542</v>
+        <v>7.74429</v>
       </c>
       <c r="C74" t="n">
-        <v>4225.42</v>
+        <v>7744.29</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>2.26297</v>
+        <v>2.26922</v>
       </c>
       <c r="B75" t="n">
-        <v>4.16635</v>
+        <v>7.64342</v>
       </c>
       <c r="C75" t="n">
-        <v>4166.35</v>
+        <v>7643.42</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>2.2943</v>
+        <v>2.29962</v>
       </c>
       <c r="B76" t="n">
-        <v>4.10439</v>
+        <v>7.54464</v>
       </c>
       <c r="C76" t="n">
-        <v>4104.39</v>
+        <v>7544.64</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>2.32552</v>
+        <v>2.33088</v>
       </c>
       <c r="B77" t="n">
-        <v>4.05987</v>
+        <v>7.445060000000001</v>
       </c>
       <c r="C77" t="n">
-        <v>4059.87</v>
+        <v>7445.06</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>2.35624</v>
+        <v>2.36192</v>
       </c>
       <c r="B78" t="n">
-        <v>3.99368</v>
+        <v>7.34381</v>
       </c>
       <c r="C78" t="n">
-        <v>3993.68</v>
+        <v>7343.81</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>2.38696</v>
+        <v>2.39264</v>
       </c>
       <c r="B79" t="n">
-        <v>3.92492</v>
+        <v>7.24444</v>
       </c>
       <c r="C79" t="n">
-        <v>3924.92</v>
+        <v>7244.44</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>2.41829</v>
+        <v>2.4238</v>
       </c>
       <c r="B80" t="n">
-        <v>3.87817</v>
+        <v>7.144100000000001</v>
       </c>
       <c r="C80" t="n">
-        <v>3878.17</v>
+        <v>7144.1</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>2.44941</v>
+        <v>2.45489</v>
       </c>
       <c r="B81" t="n">
-        <v>3.87157</v>
+        <v>7.04253</v>
       </c>
       <c r="C81" t="n">
-        <v>3871.57</v>
+        <v>7042.53</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>2.47958</v>
+        <v>2.48598</v>
       </c>
       <c r="B82" t="n">
-        <v>3.83778</v>
+        <v>6.943210000000001</v>
       </c>
       <c r="C82" t="n">
-        <v>3837.78</v>
+        <v>6943.21</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>2.50905</v>
+        <v>2.51578</v>
       </c>
       <c r="B83" t="n">
-        <v>3.8508</v>
+        <v>6.845899999999999</v>
       </c>
       <c r="C83" t="n">
-        <v>3850.8</v>
+        <v>6845.9</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>2.53811</v>
+        <v>2.54503</v>
       </c>
       <c r="B84" t="n">
-        <v>3.86919</v>
+        <v>6.75103</v>
       </c>
       <c r="C84" t="n">
-        <v>3869.19</v>
+        <v>6751.03</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>2.57114</v>
+        <v>2.5763</v>
       </c>
       <c r="B85" t="n">
-        <v>3.81046</v>
+        <v>6.65171</v>
       </c>
       <c r="C85" t="n">
-        <v>3810.46</v>
+        <v>6651.71</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>2.60442</v>
+        <v>2.60863</v>
       </c>
       <c r="B86" t="n">
-        <v>3.80703</v>
+        <v>6.54533</v>
       </c>
       <c r="C86" t="n">
-        <v>3807.03</v>
+        <v>6545.33</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>2.6377</v>
+        <v>2.64063</v>
       </c>
       <c r="B87" t="n">
-        <v>3.82448</v>
+        <v>6.44317</v>
       </c>
       <c r="C87" t="n">
-        <v>3824.48</v>
+        <v>6443.17</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>2.67098</v>
+        <v>2.67263</v>
       </c>
       <c r="B88" t="n">
-        <v>3.78756</v>
+        <v>6.342390000000001</v>
       </c>
       <c r="C88" t="n">
-        <v>3787.56</v>
+        <v>6342.39</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>2.70257</v>
+        <v>2.70334</v>
       </c>
       <c r="B89" t="n">
-        <v>3.75353</v>
+        <v>6.24352</v>
       </c>
       <c r="C89" t="n">
-        <v>3753.53</v>
+        <v>6243.52</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>2.73333</v>
+        <v>2.7332</v>
       </c>
       <c r="B90" t="n">
-        <v>3.73071</v>
+        <v>6.14673</v>
       </c>
       <c r="C90" t="n">
-        <v>3730.71</v>
+        <v>6146.73</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>2.76406</v>
+        <v>2.76307</v>
       </c>
       <c r="B91" t="n">
-        <v>3.71085</v>
+        <v>6.05248</v>
       </c>
       <c r="C91" t="n">
-        <v>3710.85</v>
+        <v>6052.48</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>2.79478</v>
+        <v>2.79294</v>
       </c>
       <c r="B92" t="n">
-        <v>3.69644</v>
+        <v>5.96008</v>
       </c>
       <c r="C92" t="n">
-        <v>3696.44</v>
+        <v>5960.08</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>2.8255</v>
+        <v>2.82176</v>
       </c>
       <c r="B93" t="n">
-        <v>3.68811</v>
+        <v>5.86787</v>
       </c>
       <c r="C93" t="n">
-        <v>3688.11</v>
+        <v>5867.87</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>2.85622</v>
+        <v>2.85504</v>
       </c>
       <c r="B94" t="n">
-        <v>3.69214</v>
+        <v>5.763100000000001</v>
       </c>
       <c r="C94" t="n">
-        <v>3692.14</v>
+        <v>5763.1</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>2.88694</v>
+        <v>2.88832</v>
       </c>
       <c r="B95" t="n">
-        <v>3.65887</v>
+        <v>5.661270000000001</v>
       </c>
       <c r="C95" t="n">
-        <v>3658.87</v>
+        <v>5661.27</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>2.91606</v>
+        <v>2.9215</v>
       </c>
       <c r="B96" t="n">
-        <v>3.6133</v>
+        <v>5.56338</v>
       </c>
       <c r="C96" t="n">
-        <v>3613.3</v>
+        <v>5563.38</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>2.94426</v>
+        <v>2.95222</v>
       </c>
       <c r="B97" t="n">
-        <v>3.61862</v>
+        <v>5.468979999999999</v>
       </c>
       <c r="C97" t="n">
-        <v>3618.62</v>
+        <v>5468.98</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>2.97242</v>
+        <v>2.98294</v>
       </c>
       <c r="B98" t="n">
-        <v>3.60704</v>
+        <v>5.377479999999999</v>
       </c>
       <c r="C98" t="n">
-        <v>3607.04</v>
+        <v>5377.48</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>3.00058</v>
+        <v>3.01366</v>
       </c>
       <c r="B99" t="n">
-        <v>3.55897</v>
+        <v>5.288390000000001</v>
       </c>
       <c r="C99" t="n">
-        <v>3558.97</v>
+        <v>5288.39</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>3.02874</v>
+        <v>3.04438</v>
       </c>
       <c r="B100" t="n">
-        <v>3.57535</v>
+        <v>5.201390000000001</v>
       </c>
       <c r="C100" t="n">
-        <v>3575.35</v>
+        <v>5201.39</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>3.06046</v>
+        <v>3.07394</v>
       </c>
       <c r="B101" t="n">
-        <v>3.55567</v>
+        <v>5.11804</v>
       </c>
       <c r="C101" t="n">
-        <v>3555.67</v>
+        <v>5118.04</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>3.09533</v>
+        <v>3.1021</v>
       </c>
       <c r="B102" t="n">
-        <v>3.4975</v>
+        <v>5.0373</v>
       </c>
       <c r="C102" t="n">
-        <v>3497.5</v>
+        <v>5037.3</v>
       </c>
     </row>
   </sheetData>
